--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3878.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3878.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.780784708854389</v>
+        <v>2.204664707183838</v>
       </c>
       <c r="B1">
-        <v>2.622626226752762</v>
+        <v>2.564207315444946</v>
       </c>
       <c r="C1">
-        <v>2.747908009328028</v>
+        <v>3.080844402313232</v>
       </c>
       <c r="D1">
-        <v>3.140273929455863</v>
+        <v>5.448067665100098</v>
       </c>
       <c r="E1">
-        <v>3.169787165717992</v>
+        <v>2.990542888641357</v>
       </c>
     </row>
   </sheetData>
